--- a/ResultatParties.xlsx
+++ b/ResultatParties.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,20 +446,9 @@
         <v>Result</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>0</v>
-      </c>
-      <c r="B5" t="str">
-        <v>0</v>
-      </c>
-      <c r="C5" t="str">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/ResultatParties.xlsx
+++ b/ResultatParties.xlsx
@@ -1,52 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -65,13 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -396,59 +444,939 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:C281"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>0 = Pierre</v>
-      </c>
-      <c r="B1" t="str">
-        <v>0 = Pierre</v>
-      </c>
-      <c r="C1" t="str">
-        <v>0 = Robot Perdu</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Robot</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>1 = Feuille</v>
-      </c>
-      <c r="B2" t="str">
-        <v>1 = Feuille</v>
-      </c>
-      <c r="C2" t="str">
-        <v>1 = Robot Gagné</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>2 = Ciseaux</v>
-      </c>
-      <c r="B3" t="str">
-        <v>2 = Ciseaux</v>
-      </c>
-      <c r="C3" t="str">
-        <v>2 = Match nul</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>User</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Robot</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Result</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
-  </ignoredErrors>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>